--- a/output/fit_clients/fit_round_58.xlsx
+++ b/output/fit_clients/fit_round_58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9872471959.838215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003123905770327582</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2897184580470397</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.067014496680637</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.5426763397489104</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.067014496680637</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5712326823.742303</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003801881286286922</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7810061635217612</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.718736572080827</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.045590487913305</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.718736572080827</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4165614710.847907</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002877621050799814</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.405236812234897</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9439237158718706</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.405236812234897</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3262918681.765663</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003249870473836192</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.688307370111455</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8067784896330804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.688307370111455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>8084676355.937588</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001874931356729655</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8091516847023098</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.445411969059248</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.022954626061739</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.445411969059248</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8063152347.409904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001350787671674186</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.620218013409984</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.4913036844405175</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.620218013409984</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5165743013.839366</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002792029035987406</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.845348563682936</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.356655505412706</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.136141213013564</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.356655505412706</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5299763845.712924</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004021432132674673</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.541529885749058</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8992910346288228</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.541529885749058</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4400747694.795609</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004549379392565531</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.938407730406263</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9322663472280351</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.938407730406263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4439296511.24562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001085376282604263</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.596362756723735</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7619481572921377</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.596362756723735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7706708378.671336</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001809548267185931</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.765749225692499</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9918972716224038</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.765749225692499</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4680099012.196446</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004016132590715955</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4471488110069479</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.535906085597577</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.8185530343116753</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.535906085597577</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8687039588.337072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002666884391178406</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.252219692191351</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8855464448103677</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.252219692191351</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5551182908.056181</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003779398642194802</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.363998974467855</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.964440708185991</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.363998974467855</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5290530575.120588</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003587159736969262</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.172400425777712</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8937527651650389</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.172400425777712</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6794144763.104915</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002328189883175034</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.180582813659111</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9251156591709323</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.180582813659111</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6995859545.256572</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009971047583878167</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8633094955200022</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.400254080812728</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.136835066157875</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.400254080812728</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3271807895.904547</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001869533014439731</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.855081482385561</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8900414402848907</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.855081482385561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5352255433.837221</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001086504654495627</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.610672644906108</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8290496910142529</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.610672644906108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8396267179.163733</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005517901583303853</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.817063808267521</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8258717636821403</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.817063808267521</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>6006210042.880478</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004332411814880937</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5684858688263864</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.755031116018097</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.745960203033229</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.755031116018097</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6959245205.592226</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001714734417168467</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.295116656818124</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8141579396358135</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.295116656818124</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7569663061.190018</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003348892760389617</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.210358617156752</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9716363203425269</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.210358617156752</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6726999065.918812</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002906819203223036</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.508406202474422</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9279759062959458</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.508406202474422</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5685539457.781987</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009573967378653686</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.482875500126934</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7964294394961329</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.482875500126934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5586985055.14932</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003016894992064787</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.768448485234638</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9004196935749192</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.768448485234638</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8897819717.705626</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004742446868325652</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.994308405524921</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8840546509859039</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.994308405524921</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6905191961.96454</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001291068177247857</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.366579638026708</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9692401865678532</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.366579638026708</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6715483727.26981</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.00298539543379745</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.83765044162216</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8784086329019175</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.83765044162216</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6669637684.789645</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002121959898184452</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.724527768109925</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9290697187399636</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.724527768109925</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5270852973.758462</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009377583589583196</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.548439355023174</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9336811137430042</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.548439355023174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7940532846.329956</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003332679149539887</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.542149741685492</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8425470961039827</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.542149741685492</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5263631614.548104</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003786848579306147</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>11</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.114604156338018</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7367028140119901</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.114604156338018</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6186828950.432523</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002344332602172246</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.961425779116912</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9073843750788402</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.961425779116912</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8180906394.178074</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003328230015722789</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.1213551844370735</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.100003717212985</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.256641839363322</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.100003717212985</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6180828396.989745</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004441207651156492</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.917746333442829</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9848705588800154</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.917746333442829</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4618354029.378456</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003985023552766221</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.76715249481302</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8810518294103331</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.76715249481302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4885389234.356228</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002190899109591155</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.162001583795507</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8330574468100702</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.162001583795507</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6384812098.954925</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003499132660210185</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.157814415534298</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9647881215726578</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.157814415534298</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6163286885.276641</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001015711135296805</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.8866097409164161</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.124385342936786</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.137347483472955</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.124385342936786</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4358934962.104671</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004890106664944354</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3281608045367279</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.746756913654355</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.6360998264761267</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.746756913654355</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4471461159.888444</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00374836025866901</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.087151467196282</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.219483170851909</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.087151467196282</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5285938233.788093</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001658962234332835</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>14</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.771390775667563</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9073956931718293</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.771390775667563</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4906978858.511155</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001566593583242789</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.250315458373078</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9343986847182418</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.250315458373078</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7331245379.464759</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004731974240195812</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.992627851468407</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8137209786231989</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.992627851468407</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9106857126.234299</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003178345577941386</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.872925796598671</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.766130274196376</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.096143696585131</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.766130274196376</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7185060548.545891</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00309308277762637</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9378812831422096</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.496092766419949</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.20169986021055</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.496092766419949</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5056584519.737062</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005244448810232143</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.78335281250383</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8437516629714142</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.78335281250383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6871461056.736698</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003633685352868849</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.87326248099758</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.021540530298019</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.87326248099758</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3890724272.871133</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004505879958159872</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.719004808043145</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9204613533236726</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.719004808043145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5815544761.977735</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001528711996433112</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.900132393183825</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8330574468100702</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.900132393183825</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6649857925.474303</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003286803290029646</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.118448377095742</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9113928263237371</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.118448377095742</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6234458532.599221</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004570680756620795</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>13</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.664416746158111</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8266704966555211</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.664416746158111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6634884720.382168</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003767667400211095</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.642321219404465</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8693105468640505</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.642321219404465</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4327188077.053041</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002120776109661153</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>10</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.139107155330969</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8993024545798514</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.139107155330969</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5741085206.472574</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003491138615125189</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.701887624689106</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.7897333173936185</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.701887624689106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5515827955.492604</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002207743799719601</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.419442575058652</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7855306949991067</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.419442575058652</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5113639886.482538</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004474895748029725</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.929831412595667</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8750035352001155</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.929831412595667</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4585907876.094074</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004147011753523597</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.622470855254274</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8009933406922162</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.622470855254274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7190805429.870701</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005967996054390145</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.441293293860009</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.094776407731715</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.7173038344388549</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.094776407731715</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4199447517.364799</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003536238196429045</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
         <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.548779263251939</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8577753131753806</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.548779263251939</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>5660890607.242541</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005845099949426097</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.52976310111212</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8731217592949979</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.52976310111212</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4160054721.652705</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.00363817315031164</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8425135619805127</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.220811285257188</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.080589945610108</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.220811285257188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7331494443.809193</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004439364317833271</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.299563349735471</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9814933713904115</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.299563349735471</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4954053867.055497</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003445261289102107</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.8813197116648434</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.139695807945155</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.126997191478593</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.139695807945155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7474993176.114465</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004494594295078836</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.761562124284324</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8870357297779806</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.761562124284324</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7309165984.550154</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002909312586939358</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.517991080564279</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6978728669413028</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.517991080564279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6781427510.473336</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001233135217649834</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.746357769078764</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9726493608047233</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.746357769078764</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7080065617.092164</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00329324612020371</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7350585576374903</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.490176074589828</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.006894794791062</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.490176074589828</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3983749984.116867</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003313756250132676</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>8</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.401173262980948</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8013859819434977</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.401173262980948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6329007425.56818</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002398737139273642</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.741304559099718</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.014729232449617</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.741304559099718</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5370015045.24887</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.00144353183764292</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.242732818752597</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9411119389120757</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.242732818752597</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5187077355.663654</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004872578519299014</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.039551945945079</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8654706854505182</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.039551945945079</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5898107372.178653</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003356502431660397</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.827505520213859</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8374340148766544</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.827505520213859</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6591431615.851796</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002466448991091185</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.740460835219403</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8907941654878565</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.740460835219403</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6688353185.757045</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005060655194805025</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.1879919653298573</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.713093646512923</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.4672775882349235</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.713093646512923</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5650199897.870354</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003412041494662595</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.604213143903695</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.867404580908586</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.604213143903695</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7953073544.315978</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002598856572156273</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.876283294353444</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9620159770014476</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.876283294353444</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6094683827.551918</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003391975011599425</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.041619552870516</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9456971930762877</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.041619552870516</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7296363669.144194</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003429704947231636</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.374243000486658</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9523200201100827</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.374243000486658</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6087849802.663477</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004407547234416269</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.823506081596411</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8689249604929489</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.823506081596411</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9157263500.130325</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003705830909806052</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.289929486318582</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7766258772619394</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.289929486318582</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6890317053.780758</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005431834961684801</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.540805904659566</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9132294801863216</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.540805904659566</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5576585161.789478</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002328603491470644</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.432441543856453</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8654944177020002</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.432441543856453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6404074498.42274</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002073479229300076</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.112601139652704</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9671952849752612</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.112601139652704</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4010274499.062683</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001066950972941311</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.2868450068464</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9146961480005187</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.2868450068464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6792763428.745076</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003561426722184552</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.90089838488763</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8282656518455652</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.90089838488763</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>8027249857.404263</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003994090015697122</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.073030359617074</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9236877734693661</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.073030359617074</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7226342451.922232</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003646527771774837</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>11</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.896950833116586</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9215306522452296</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.896950833116586</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6824873760.877145</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004630949022128073</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.315342578414874</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8038655682916274</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.315342578414874</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4337950808.340193</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.00263226193328894</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.177003098487993</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.023506958730603</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.177003098487993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7969852386.205158</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001899511557970012</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.761675834696551</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.893764255880554</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.761675834696551</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4834513616.226065</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001307976796063392</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.100891073640664</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.726232736792148</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.2671222846826019</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.726232736792148</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7519133936.197447</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002290546992909092</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.382074170554269</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9171899931417682</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.382074170554269</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7662848746.724009</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002991582378228928</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>16</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.542681940267386</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8859479812815297</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.542681940267386</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7356610538.648721</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004257650226885713</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.108630409465748</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8704426844739096</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.108630409465748</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7811751831.758915</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004740650130065355</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.920090807174921</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8515617114446419</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.920090807174921</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3653689618.117158</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004174794966573646</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.793026731727381</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8791713178894199</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.793026731727381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4025321128.575971</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002435779685136991</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.379875785259675</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8330451187277589</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.379875785259675</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6958537572.327947</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001563981500371321</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5970085009525931</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.935923168825535</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8519672107361272</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.935923168825535</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_58.xlsx
+++ b/output/fit_clients/fit_round_58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9872471959.838215</v>
+        <v>2282809355.007651</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003123905770327582</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+        <v>0.08614060455447674</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03993123704821774</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1141404711.047773</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2108152965.296077</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.171020710913678</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0398171715857235</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5712326823.742303</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.003801881286286922</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+      <c r="J3" t="n">
+        <v>1054076539.332432</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4165614710.847907</v>
+        <v>3285100989.487775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002877621050799814</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
+        <v>0.1374285163340906</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03253209234776948</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1642550458.140432</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3262918681.765663</v>
+        <v>3023097138.077252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003249870473836192</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08256729764265024</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.042764495199153</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1511548637.263643</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>8084676355.937588</v>
+        <v>2375135759.070898</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001874931356729655</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12</v>
+        <v>0.1228494834678264</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.053127058997242</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1187567868.423841</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8063152347.409904</v>
+        <v>2535857599.062195</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001350787671674186</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.07634288511149544</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03454402168422981</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1267928808.983737</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3721286280.215741</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1772665897418773</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0273344718075662</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>513</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5165743013.839366</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.002792029035987406</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+      <c r="I8" t="n">
+        <v>18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1860643271.23514</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5299763845.712924</v>
+        <v>1587370718.760934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004021432132674673</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>19</v>
+        <v>0.1543874330699712</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03630580147369353</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>793685443.1378978</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4400747694.795609</v>
+        <v>5767366408.179877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004549379392565531</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2076443855069854</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05409610509195077</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2883683362.672935</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4439296511.24562</v>
+        <v>3647171135.02683</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001085376282604263</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1513699810115179</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04944689335338263</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1823585555.453722</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7706708378.671336</v>
+        <v>2683103783.89597</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001809548267185931</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1360390352142664</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04121629016268113</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>16</v>
+      <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1341551880.826583</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4680099012.196446</v>
+        <v>3308617464.563965</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004016132590715955</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>12</v>
+        <v>0.09447283987070973</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03145233252617562</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1654308822.211394</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8687039588.337072</v>
+        <v>3016665783.09842</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002666884391178406</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>13</v>
+        <v>0.1190023005890392</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03938949206355261</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1508332924.620894</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5551182908.056181</v>
+        <v>1272604030.83754</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003779398642194802</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16</v>
+        <v>0.07355691683771115</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03373480421049392</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>636302049.255542</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5290530575.120588</v>
+        <v>2438738876.00516</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003587159736969262</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18</v>
+        <v>0.1042663959058406</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03240928964968468</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1219369474.173353</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6794144763.104915</v>
+        <v>3688981517.328164</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002328189883175034</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+        <v>0.166910276097716</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04628277790092554</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1844490808.499823</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6995859545.256572</v>
+        <v>3725208819.956051</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009971047583878167</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15</v>
+        <v>0.1526370379792477</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03018627690135813</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1862604387.591052</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3271807895.904547</v>
+        <v>1378412544.956701</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001869533014439731</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1445935639391828</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02303338205502238</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>689206393.6746811</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5352255433.837221</v>
+        <v>1856366901.356309</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001086504654495627</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
+        <v>0.1579040962942528</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01930496010988526</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>928183492.2098886</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8396267179.163733</v>
+        <v>1945367321.834249</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005517901583303853</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>11</v>
+        <v>0.08391840159836816</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03328619034128187</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>972683701.910239</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>6006210042.880478</v>
+        <v>3616531874.290114</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004332411814880937</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1337490386915229</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05707353826326286</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1808265961.636501</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6959245205.592226</v>
+        <v>1322250238.143404</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001714734417168467</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11</v>
+        <v>0.143820658766798</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04171313170156563</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>661125134.8389664</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7569663061.190018</v>
+        <v>3850020415.569333</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003348892760389617</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15</v>
+        <v>0.1280841282177481</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03422848690572926</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1925010185.698607</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6726999065.918812</v>
+        <v>943776833.8433489</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002906819203223036</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>12</v>
+        <v>0.1013488139643801</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01964548472060384</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>471888493.7028775</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5685539457.781987</v>
+        <v>1275952865.096791</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009573967378653686</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1127007668127433</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03796326637656962</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>637976472.0681536</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5586985055.14932</v>
+        <v>3310838016.4956</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003016894992064787</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1290678266201687</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02504105907449636</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1655419052.510143</v>
       </c>
     </row>
     <row r="28">
@@ -1211,19 +1377,25 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8897819717.705626</v>
+        <v>3082806887.914103</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004742446868325652</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>15</v>
+        <v>0.09585506388046922</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04204574543229962</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1541403462.257104</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6905191961.96454</v>
+        <v>4927090967.952735</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001291068177247857</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>14</v>
+        <v>0.1121507462340483</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03268335686059348</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>26</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2463545436.415395</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6715483727.26981</v>
+        <v>2010253848.196326</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00298539543379745</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>19</v>
+        <v>0.124488174151171</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02933968190258474</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1005126962.612036</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6669637684.789645</v>
+        <v>1236319279.943347</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002121959898184452</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
+        <v>0.07295826548018079</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03230905087294736</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>618159582.7710164</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5270852973.758462</v>
+        <v>1648655542.837649</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009377583589583196</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1178290158086543</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02742194835131701</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>824327870.4534621</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7940532846.329956</v>
+        <v>3060765440.77531</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003332679149539887</v>
-      </c>
-      <c r="G33" t="b">
+        <v>0.1981139714219202</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03841520314227791</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>12</v>
+      <c r="I33" t="n">
+        <v>16</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1530382710.717026</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5263631614.548104</v>
+        <v>1299376882.508244</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003786848579306147</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>18</v>
+        <v>0.07653476638203795</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02775984026666764</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>649688429.8946736</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6186828950.432523</v>
+        <v>879567975.5567393</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002344332602172246</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>14</v>
+        <v>0.08020767100491683</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04215809971079371</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>439784032.6666359</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>8180906394.178074</v>
+        <v>3169516204.135803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003328230015722789</v>
-      </c>
-      <c r="G36" t="b">
+        <v>0.1745992652392869</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02163421681909645</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="H36" t="n">
-        <v>16</v>
+      <c r="I36" t="n">
+        <v>14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1584758070.297572</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6180828396.989745</v>
+        <v>2634609880.082501</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004441207651156492</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>15</v>
+        <v>0.0778413626458104</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02668704477559983</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>16</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1317305054.504848</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4618354029.378456</v>
+        <v>1844300545.036933</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003985023552766221</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.087913667391425</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02990625709921443</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>922150273.0258828</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4885389234.356228</v>
+        <v>1403498342.274312</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002190899109591155</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
+        <v>0.1309423429263542</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0318629918617073</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>701749256.1035044</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6384812098.954925</v>
+        <v>1660792444.711043</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003499132660210185</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>15</v>
+        <v>0.1548442999187438</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05644453350348527</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>830396148.1704038</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6163286885.276641</v>
+        <v>2122663142.372521</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001015711135296805</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>17</v>
+        <v>0.1414478044598793</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03663640946806163</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1061331633.251304</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4358934962.104671</v>
+        <v>2840313714.123016</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004890106664944354</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>14</v>
+        <v>0.1220640664955019</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04588610014540642</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1420156806.37005</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4471461159.888444</v>
+        <v>1852896651.234605</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00374836025866901</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
+        <v>0.1575979214750633</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01699004947511726</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19</v>
+      </c>
+      <c r="J43" t="n">
+        <v>926448439.1882453</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5285938233.788093</v>
+        <v>2231719460.510793</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001658962234332835</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.09009527295024745</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02438261681652523</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1115859882.691301</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4906978858.511155</v>
+        <v>1890303002.76013</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001566593583242789</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1818302022468455</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04559832740088822</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>945151481.0672911</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7331245379.464759</v>
+        <v>4627221107.853015</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004731974240195812</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
+        <v>0.1085341777598631</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05889895364763517</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>21</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2313610559.2794</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9106857126.234299</v>
+        <v>3685963864.258936</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003178345577941386</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1400574099623083</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05605638443763552</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1842981913.345331</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3132505429.563658</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1017495104291887</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03123096117638417</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7185060548.545891</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.00309308277762637</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
+      <c r="I48" t="n">
+        <v>19</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1566252799.462187</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5056584519.737062</v>
+        <v>1265550756.764356</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005244448810232143</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1825631537133796</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03299026322803469</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>632775446.7518299</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6871461056.736698</v>
+        <v>2898639692.34223</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003633685352868849</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>16</v>
+        <v>0.15920974527059</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03872827080413497</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1449319913.110938</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3890724272.871133</v>
+        <v>1028966720.45681</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004505879958159872</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1691927086536902</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05406757963421509</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>514483439.3880484</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5815544761.977735</v>
+        <v>4861147159.784237</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001528711996433112</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>14</v>
+        <v>0.118475752186424</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0440301921609456</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>24</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2430573585.556741</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6649857925.474303</v>
+        <v>3286274569.301823</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003286803290029646</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11</v>
+        <v>0.1830761329170179</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02658912741711238</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1643137297.212842</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6234458532.599221</v>
+        <v>3187485410.608453</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004570680756620795</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>15</v>
+        <v>0.1200172509671549</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05001263732979516</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>19</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1593742705.484468</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6634884720.382168</v>
+        <v>4093386594.140124</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003767667400211095</v>
-      </c>
-      <c r="G55" t="b">
+        <v>0.1448596104247829</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02009517270686827</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>18</v>
+      <c r="I55" t="n">
+        <v>15</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2046693276.00948</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4327188077.053041</v>
+        <v>1241377705.066918</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002120776109661153</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
+        <v>0.1637467114165367</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04470830143556549</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>620688932.9963495</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5741085206.472574</v>
+        <v>4533700103.863707</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003491138615125189</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>14</v>
+        <v>0.1385750519082099</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01772867655447659</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2266850184.959998</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5515827955.492604</v>
+        <v>1221386527.078596</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002207743799719601</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>13</v>
+        <v>0.134559834974384</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02756442577526748</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>610693319.9531668</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5113639886.482538</v>
+        <v>3289546783.898403</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004474895748029725</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.108046277411064</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04490271238523729</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1644773402.048484</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4585907876.094074</v>
+        <v>3664717000.869674</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004147011753523597</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1996583974033419</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02531784052565444</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>18</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1832358640.360658</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7190805429.870701</v>
+        <v>2281806125.43931</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005967996054390145</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13</v>
+        <v>0.1154315819477266</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03010359545784907</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1140903110.798977</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4199447517.364799</v>
+        <v>2051180291.418698</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003536238196429045</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1344924195512389</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03058797799178201</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1025590211.315859</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5660890607.242541</v>
+        <v>4052646163.250945</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005845099949426097</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>14</v>
+        <v>0.07399892635643571</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03922732632937417</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2026323141.547286</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4160054721.652705</v>
+        <v>3822261952.678678</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00363817315031164</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1691813542965759</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03303135334169701</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>18</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1911130999.578192</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7331494443.809193</v>
+        <v>4430485388.181274</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004439364317833271</v>
-      </c>
-      <c r="G65" t="b">
+        <v>0.1213788234975027</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03125639405357006</v>
+      </c>
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="H65" t="n">
-        <v>15</v>
+      <c r="I65" t="n">
+        <v>21</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2215242686.855381</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4954053867.055497</v>
+        <v>4618694292.517856</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003445261289102107</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.1014874476550998</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03500819879004307</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>17</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2309347152.881347</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7474993176.114465</v>
+        <v>2384833191.151441</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004494594295078836</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.09764890188934977</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04451952546848926</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1192416665.792539</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7309165984.550154</v>
+        <v>3857729447.476736</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002909312586939358</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>12</v>
+        <v>0.1303021189074392</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0396517042506554</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>18</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1928864710.806411</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6781427510.473336</v>
+        <v>1872466041.913179</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001233135217649834</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>13</v>
+        <v>0.1587116140448719</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04041838043438029</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>936233009.320096</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7080065617.092164</v>
+        <v>2606604937.009763</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00329324612020371</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>14</v>
+        <v>0.08942798400986016</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03073255586712442</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>16</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1303302419.828004</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3983749984.116867</v>
+        <v>4009316768.199602</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003313756250132676</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1562543644851264</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02740262331538838</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>21</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2004658415.747976</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6329007425.56818</v>
+        <v>2214386775.270245</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002398737139273642</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>12</v>
+        <v>0.09685914031111482</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03618691076851701</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1107193299.291434</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5370015045.24887</v>
+        <v>3015693265.222806</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00144353183764292</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13</v>
+        <v>0.07853218243701759</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03320486962586333</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>22</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1507846627.03943</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5187077355.663654</v>
+        <v>3583842689.317268</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004872578519299014</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>13</v>
+        <v>0.1211230686750325</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03432455278516106</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1791921359.435328</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5898107372.178653</v>
+        <v>1697631744.992452</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003356502431660397</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>11</v>
+        <v>0.1012511310220707</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03217752892161713</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>848815864.8887258</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>412</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5248789244.553789</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.08768914790649919</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0277776043461041</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="D76" t="n">
-        <v>459</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6591431615.851796</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.002466448991091185</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2624394659.266957</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6688353185.757045</v>
+        <v>2147608837.996559</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005060655194805025</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1512822829631112</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0252446091540171</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1073804502.177832</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5650199897.870354</v>
+        <v>2914794725.285307</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003412041494662595</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>12</v>
+        <v>0.09857471411689048</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04875474689617155</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1457397405.985116</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7953073544.315978</v>
+        <v>1294200290.155068</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002598856572156273</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>12</v>
+        <v>0.1187207952210985</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03043888788750081</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>647100143.1454983</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6094683827.551918</v>
+        <v>4449829018.249713</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003391975011599425</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>19</v>
+        <v>0.07062671656336095</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03691359463202817</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2224914530.852111</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7296363669.144194</v>
+        <v>5053083348.071884</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003429704947231636</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.1158868018480841</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.01994333124883896</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>13</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2526541676.288289</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6087849802.663477</v>
+        <v>5298930282.953683</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004407547234416269</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>10</v>
+        <v>0.2042530190686603</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02222317899836633</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2649465108.649127</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9157263500.130325</v>
+        <v>1678590109.035099</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003705830909806052</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1511321340044861</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03505457214369206</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>839294999.7097442</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6890317053.780758</v>
+        <v>2129003271.505075</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005431834961684801</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>16</v>
+        <v>0.08690865953062839</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04105624924162526</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1064501621.738501</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5576585161.789478</v>
+        <v>2287425469.49017</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002328603491470644</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
+        <v>0.1438213463776932</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05628604207261047</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1143712716.100744</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6404074498.42274</v>
+        <v>2454643776.103893</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002073479229300076</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16</v>
+        <v>0.1318712226764215</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02290367425036119</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1227321978.780277</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4010274499.062683</v>
+        <v>1179719974.049468</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001066950972941311</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1522013321242066</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04183884166769683</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>589860037.2814727</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6792763428.745076</v>
+        <v>3214330191.096062</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003561426722184552</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>13</v>
+        <v>0.1217607995832377</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03129620562224961</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>22</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1607165147.041257</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>8027249857.404263</v>
+        <v>3159495440.755944</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003994090015697122</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>13</v>
+        <v>0.1353790818852056</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02741719180505593</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1579747746.674621</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7226342451.922232</v>
+        <v>1358490351.976417</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003646527771774837</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>10</v>
+        <v>0.1301215724775249</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04837327978610621</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>679245128.6796181</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6824873760.877145</v>
+        <v>1343522476.969965</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004630949022128073</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>17</v>
+        <v>0.1351208313079501</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0589952339281765</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>671761298.1182977</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4337950808.340193</v>
+        <v>2285410747.380046</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00263226193328894</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0867230347182394</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04676283041398056</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1142705341.314769</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7969852386.205158</v>
+        <v>3950559315.689092</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001899511557970012</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>20</v>
+        <v>0.1228333470839298</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05054542590755248</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>17</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1975279661.538593</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4834513616.226065</v>
+        <v>2446182737.761704</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001307976796063392</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>17</v>
+        <v>0.149017097022262</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03763261050181945</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1223091425.207796</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7519133936.197447</v>
+        <v>2784644698.526502</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002290546992909092</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>15</v>
+        <v>0.1155059217573134</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03891426785101978</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1392322364.533538</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7662848746.724009</v>
+        <v>1652730329.363937</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002991582378228928</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>15</v>
+        <v>0.09862132429227283</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04195339417187834</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>826365188.6081072</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7356610538.648721</v>
+        <v>5175257073.091861</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004257650226885713</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>15</v>
+        <v>0.1611787372396608</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02758944703178661</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>19</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2587628687.317859</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7811751831.758915</v>
+        <v>2648641395.241271</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004740650130065355</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>22</v>
+        <v>0.08699754144311191</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03209535235017662</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1324320658.353751</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3653689618.117158</v>
+        <v>2719160121.289792</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004174794966573646</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09265307060093542</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02862782165381989</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1359580026.127912</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4025321128.575971</v>
+        <v>4356713045.462837</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002435779685136991</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1320335732301557</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01796304282977868</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2178356621.748922</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6958537572.327947</v>
+        <v>3117774536.739447</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001563981500371321</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>19</v>
+        <v>0.2062270430484107</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04089703851279016</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>25</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1558887372.874599</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_58.xlsx
+++ b/output/fit_clients/fit_round_58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2282809355.007651</v>
+        <v>1988685606.446408</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08614060455447674</v>
+        <v>0.1080540099320171</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03993123704821774</v>
+        <v>0.04180655989345178</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1141404711.047773</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2108152965.296077</v>
+        <v>2554920728.498852</v>
       </c>
       <c r="F3" t="n">
-        <v>0.171020710913678</v>
+        <v>0.1532686654491801</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0398171715857235</v>
+        <v>0.03801380945944069</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1054076539.332432</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3285100989.487775</v>
+        <v>3884725005.614329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1374285163340906</v>
+        <v>0.1443629903830683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03253209234776948</v>
+        <v>0.02822144675839506</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1642550458.140432</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3023097138.077252</v>
+        <v>2996134929.680882</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08256729764265024</v>
+        <v>0.09889094101685827</v>
       </c>
       <c r="G5" t="n">
-        <v>0.042764495199153</v>
+        <v>0.0414410978406272</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1511548637.263643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2375135759.070898</v>
+        <v>2603512184.195442</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1228494834678264</v>
+        <v>0.128694174894114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.053127058997242</v>
+        <v>0.04542750035794044</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1187567868.423841</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2535857599.062195</v>
+        <v>2314569151.843154</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07634288511149544</v>
+        <v>0.07306541179025458</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03454402168422981</v>
+        <v>0.04971873488261006</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1267928808.983737</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3721286280.215741</v>
+        <v>2784175963.89335</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1772665897418773</v>
+        <v>0.1401454550082844</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0273344718075662</v>
+        <v>0.03025799286361399</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1860643271.23514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1587370718.760934</v>
+        <v>2050461148.125287</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1543874330699712</v>
+        <v>0.1492650036104254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03630580147369353</v>
+        <v>0.0301275892056535</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>793685443.1378978</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5767366408.179877</v>
+        <v>4729250294.161603</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2076443855069854</v>
+        <v>0.1971572305862387</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05409610509195077</v>
+        <v>0.04071141870662927</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2883683362.672935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3647171135.02683</v>
+        <v>4080145747.301336</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1513699810115179</v>
+        <v>0.1152643913526031</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04944689335338263</v>
+        <v>0.03759790355066034</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1823585555.453722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2683103783.89597</v>
+        <v>2227635838.351757</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1360390352142664</v>
+        <v>0.181449902826378</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04121629016268113</v>
+        <v>0.03594106429231159</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>19</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1341551880.826583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3308617464.563965</v>
+        <v>5348744471.644305</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09447283987070973</v>
+        <v>0.08228178485089434</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03145233252617562</v>
+        <v>0.02840639649503179</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1654308822.211394</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3016665783.09842</v>
+        <v>2758179848.111661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1190023005890392</v>
+        <v>0.14298228446965</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03938949206355261</v>
+        <v>0.03103087661738691</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1508332924.620894</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1272604030.83754</v>
+        <v>1398805639.622559</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07355691683771115</v>
+        <v>0.09326601132847763</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03373480421049392</v>
+        <v>0.03422292135017509</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>636302049.255542</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2438738876.00516</v>
+        <v>2051081630.78375</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1042663959058406</v>
+        <v>0.1040636610689367</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03240928964968468</v>
+        <v>0.04879091320211223</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1219369474.173353</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3688981517.328164</v>
+        <v>4192338553.599668</v>
       </c>
       <c r="F17" t="n">
-        <v>0.166910276097716</v>
+        <v>0.1430728494546686</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04628277790092554</v>
+        <v>0.05258585720538152</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>17</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1844490808.499823</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3725208819.956051</v>
+        <v>3262051046.597482</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1526370379792477</v>
+        <v>0.1643093011397845</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03018627690135813</v>
+        <v>0.03335343438841559</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>19</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1862604387.591052</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1378412544.956701</v>
+        <v>852191749.0134979</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1445935639391828</v>
+        <v>0.1631764057661919</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02303338205502238</v>
+        <v>0.01963368406497158</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>689206393.6746811</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1856366901.356309</v>
+        <v>2121439445.897285</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1579040962942528</v>
+        <v>0.158318354559315</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01930496010988526</v>
+        <v>0.02708486252259736</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>928183492.2098886</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1945367321.834249</v>
+        <v>2618799279.546164</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08391840159836816</v>
+        <v>0.08690466679617218</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03328619034128187</v>
+        <v>0.02912901928386283</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>972683701.910239</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3616531874.290114</v>
+        <v>3337356422.969099</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1337490386915229</v>
+        <v>0.1373765819531115</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05707353826326286</v>
+        <v>0.03589248984529039</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>16</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1808265961.636501</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1322250238.143404</v>
+        <v>1409528691.518098</v>
       </c>
       <c r="F23" t="n">
-        <v>0.143820658766798</v>
+        <v>0.1213188548025737</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04171313170156563</v>
+        <v>0.03998903822754422</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>661125134.8389664</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3850020415.569333</v>
+        <v>3817897723.521241</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1280841282177481</v>
+        <v>0.09862303943532659</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03422848690572926</v>
+        <v>0.03139645090908434</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1925010185.698607</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>943776833.8433489</v>
+        <v>1383302586.834735</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1013488139643801</v>
+        <v>0.1093925261585307</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01964548472060384</v>
+        <v>0.01906964474369825</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>471888493.7028775</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1275952865.096791</v>
+        <v>1044871751.042913</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1127007668127433</v>
+        <v>0.08355362522303654</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03796326637656962</v>
+        <v>0.03701999611683756</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>637976472.0681536</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3310838016.4956</v>
+        <v>3504529859.011488</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1290678266201687</v>
+        <v>0.1439827674012849</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02504105907449636</v>
+        <v>0.01933036332358641</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1655419052.510143</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3082806887.914103</v>
+        <v>2475496865.046547</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09585506388046922</v>
+        <v>0.1482863338981084</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04204574543229962</v>
+        <v>0.04580318458708488</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>18</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1541403462.257104</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4927090967.952735</v>
+        <v>4070201873.554402</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1121507462340483</v>
+        <v>0.1180977286939687</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03268335686059348</v>
+        <v>0.03122386871028516</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>26</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2463545436.415395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2010253848.196326</v>
+        <v>1719715834.453174</v>
       </c>
       <c r="F30" t="n">
-        <v>0.124488174151171</v>
+        <v>0.09092903399220055</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02933968190258474</v>
+        <v>0.03409014081815246</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1005126962.612036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1236319279.943347</v>
+        <v>1499920829.46526</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07295826548018079</v>
+        <v>0.1117705569868361</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03230905087294736</v>
+        <v>0.04564917498227494</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>618159582.7710164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1648655542.837649</v>
+        <v>1564333477.988968</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1178290158086543</v>
+        <v>0.08551146633088584</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02742194835131701</v>
+        <v>0.02872230855011611</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>824327870.4534621</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3060765440.77531</v>
+        <v>1948222198.244536</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1981139714219202</v>
+        <v>0.1713986648751782</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03841520314227791</v>
+        <v>0.04532904925634379</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>16</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1530382710.717026</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1299376882.508244</v>
+        <v>1028328703.722441</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07653476638203795</v>
+        <v>0.09377373617752403</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02775984026666764</v>
+        <v>0.02191111957141606</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>649688429.8946736</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>879567975.5567393</v>
+        <v>962511199.8236183</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08020767100491683</v>
+        <v>0.09375128502758685</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04215809971079371</v>
+        <v>0.04123666010101437</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>439784032.6666359</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3169516204.135803</v>
+        <v>3020284966.324563</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1745992652392869</v>
+        <v>0.1791130329784209</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02163421681909645</v>
+        <v>0.02236375577070263</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1584758070.297572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2634609880.082501</v>
+        <v>2414961411.282962</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0778413626458104</v>
+        <v>0.0845485066593142</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02668704477559983</v>
+        <v>0.04115274859321313</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>16</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1317305054.504848</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1844300545.036933</v>
+        <v>1694948317.189338</v>
       </c>
       <c r="F38" t="n">
-        <v>0.087913667391425</v>
+        <v>0.0834390426795181</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02990625709921443</v>
+        <v>0.03254871595171727</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>922150273.0258828</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1403498342.274312</v>
+        <v>1622649421.046857</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1309423429263542</v>
+        <v>0.1625199375690072</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0318629918617073</v>
+        <v>0.03195434852784224</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>701749256.1035044</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1660792444.711043</v>
+        <v>1170584279.222575</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1548442999187438</v>
+        <v>0.09954031503008935</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05644453350348527</v>
+        <v>0.03840217196890803</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>830396148.1704038</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2122663142.372521</v>
+        <v>2802089442.312376</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1414478044598793</v>
+        <v>0.1505194551797228</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03663640946806163</v>
+        <v>0.03988931689464016</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1061331633.251304</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2840313714.123016</v>
+        <v>4286740168.522406</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1220640664955019</v>
+        <v>0.08731317138537557</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04588610014540642</v>
+        <v>0.04609504387586606</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>19</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1420156806.37005</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1852896651.234605</v>
+        <v>2436378958.114856</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1575979214750633</v>
+        <v>0.1252874967280059</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01699004947511726</v>
+        <v>0.02505183403703952</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>926448439.1882453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2231719460.510793</v>
+        <v>1667974101.238775</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09009527295024745</v>
+        <v>0.08136776281802938</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02438261681652523</v>
+        <v>0.03359261900407947</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1115859882.691301</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1890303002.76013</v>
+        <v>2453696430.188568</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1818302022468455</v>
+        <v>0.1816825226652786</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04559832740088822</v>
+        <v>0.04838380250397147</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>945151481.0672911</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4627221107.853015</v>
+        <v>4330085679.4083</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1085341777598631</v>
+        <v>0.1648358270052862</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05889895364763517</v>
+        <v>0.05845319760044382</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2313610559.2794</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3685963864.258936</v>
+        <v>5058399251.852168</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1400574099623083</v>
+        <v>0.1980534774622397</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05605638443763552</v>
+        <v>0.04820245323083503</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1842981913.345331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3132505429.563658</v>
+        <v>3221036115.436012</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1017495104291887</v>
+        <v>0.09696951672266839</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03123096117638417</v>
+        <v>0.02628085885195757</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>19</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1566252799.462187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1265550756.764356</v>
+        <v>1354446621.500033</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1825631537133796</v>
+        <v>0.1482916773385483</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03299026322803469</v>
+        <v>0.02753635076041532</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>632775446.7518299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2898639692.34223</v>
+        <v>4091892365.695735</v>
       </c>
       <c r="F50" t="n">
-        <v>0.15920974527059</v>
+        <v>0.1764430112708849</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03872827080413497</v>
+        <v>0.0434185528752846</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>20</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1449319913.110938</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1028966720.45681</v>
+        <v>1458117822.49227</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1691927086536902</v>
+        <v>0.1343867775592881</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05406757963421509</v>
+        <v>0.05265531383144686</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>514483439.3880484</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4861147159.784237</v>
+        <v>3246767597.403076</v>
       </c>
       <c r="F52" t="n">
-        <v>0.118475752186424</v>
+        <v>0.09596213115977487</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0440301921609456</v>
+        <v>0.05381484485473005</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>24</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2430573585.556741</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3286274569.301823</v>
+        <v>2362607739.38896</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1830761329170179</v>
+        <v>0.1866289739853632</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02658912741711238</v>
+        <v>0.03172300562576297</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>16</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1643137297.212842</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3187485410.608453</v>
+        <v>4121446402.539856</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1200172509671549</v>
+        <v>0.1282105588061437</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05001263732979516</v>
+        <v>0.04709564659330572</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1593742705.484468</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4093386594.140124</v>
+        <v>4779553955.162674</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1448596104247829</v>
+        <v>0.2196747481676953</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02009517270686827</v>
+        <v>0.03116108286775956</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>15</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2046693276.00948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1241377705.066918</v>
+        <v>1822264940.790775</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1637467114165367</v>
+        <v>0.1231667567141421</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04470830143556549</v>
+        <v>0.03520619521947262</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>620688932.9963495</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4533700103.863707</v>
+        <v>2861358661.93959</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1385750519082099</v>
+        <v>0.1521276149982627</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01772867655447659</v>
+        <v>0.0189326636484433</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2266850184.959998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1221386527.078596</v>
+        <v>1614661829.609708</v>
       </c>
       <c r="F58" t="n">
-        <v>0.134559834974384</v>
+        <v>0.1604606550379039</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02756442577526748</v>
+        <v>0.02560991638226337</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>610693319.9531668</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3289546783.898403</v>
+        <v>4563607250.084437</v>
       </c>
       <c r="F59" t="n">
-        <v>0.108046277411064</v>
+        <v>0.1120913800725241</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04490271238523729</v>
+        <v>0.03830127862775734</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1644773402.048484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3664717000.869674</v>
+        <v>2479149136.132259</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1996583974033419</v>
+        <v>0.1744392410505958</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02531784052565444</v>
+        <v>0.03086273924089613</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1832358640.360658</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2281806125.43931</v>
+        <v>3061784047.620799</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1154315819477266</v>
+        <v>0.1683288264210572</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03010359545784907</v>
+        <v>0.02906675343133452</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1140903110.798977</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2051180291.418698</v>
+        <v>1597039821.780917</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1344924195512389</v>
+        <v>0.1532697016736072</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03058797799178201</v>
+        <v>0.0340123525890043</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1025590211.315859</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4052646163.250945</v>
+        <v>5167741809.792387</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07399892635643571</v>
+        <v>0.07052370111632007</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03922732632937417</v>
+        <v>0.04679240469618715</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2026323141.547286</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3822261952.678678</v>
+        <v>3704117751.087077</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1691813542965759</v>
+        <v>0.1750933969983558</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03303135334169701</v>
+        <v>0.02299366122670696</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>18</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1911130999.578192</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4430485388.181274</v>
+        <v>4643545965.678058</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1213788234975027</v>
+        <v>0.1080671373714309</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03125639405357006</v>
+        <v>0.02798295481166292</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>21</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2215242686.855381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4618694292.517856</v>
+        <v>5267577637.849833</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1014874476550998</v>
+        <v>0.1311895806816295</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03500819879004307</v>
+        <v>0.03346480103558035</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>17</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2309347152.881347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2384833191.151441</v>
+        <v>2360285293.089026</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09764890188934977</v>
+        <v>0.06307198662966736</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04451952546848926</v>
+        <v>0.0372221933728081</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>19</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1192416665.792539</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3857729447.476736</v>
+        <v>5121206544.675403</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1303021189074392</v>
+        <v>0.1121576605333318</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0396517042506554</v>
+        <v>0.05091063496257402</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1928864710.806411</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1872466041.913179</v>
+        <v>2391245361.79165</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1587116140448719</v>
+        <v>0.1778903321666956</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04041838043438029</v>
+        <v>0.05962072978666687</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>936233009.320096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2606604937.009763</v>
+        <v>2442385562.884095</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08942798400986016</v>
+        <v>0.09946121428930961</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03073255586712442</v>
+        <v>0.0346636019356442</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>16</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1303302419.828004</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4009316768.199602</v>
+        <v>4818109343.203961</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1562543644851264</v>
+        <v>0.1635100997038963</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02740262331538838</v>
+        <v>0.02986808551415838</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>21</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2004658415.747976</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2214386775.270245</v>
+        <v>1893035078.918532</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09685914031111482</v>
+        <v>0.06715559320995211</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03618691076851701</v>
+        <v>0.05244472706651809</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1107193299.291434</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3015693265.222806</v>
+        <v>3336908290.69842</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07853218243701759</v>
+        <v>0.09574305994256889</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03320486962586333</v>
+        <v>0.03841113409164369</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>22</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1507846627.03943</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3583842689.317268</v>
+        <v>3703347016.704139</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1211230686750325</v>
+        <v>0.1397110629003078</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03432455278516106</v>
+        <v>0.03138793384302389</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>20</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1791921359.435328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1697631744.992452</v>
+        <v>2056597305.31152</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1012511310220707</v>
+        <v>0.1392734905484755</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03217752892161713</v>
+        <v>0.024095683482867</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>848815864.8887258</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5248789244.553789</v>
+        <v>4617072416.141182</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08768914790649919</v>
+        <v>0.09118129171482231</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0277776043461041</v>
+        <v>0.02702172313298088</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>12</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2624394659.266957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2147608837.996559</v>
+        <v>1394074305.114166</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1512822829631112</v>
+        <v>0.1204805468421737</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0252446091540171</v>
+        <v>0.02864699548983296</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1073804502.177832</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2914794725.285307</v>
+        <v>4147117117.395106</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09857471411689048</v>
+        <v>0.1354760684152024</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04875474689617155</v>
+        <v>0.038749055994563</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>20</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1457397405.985116</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1294200290.155068</v>
+        <v>1744335001.612818</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1187207952210985</v>
+        <v>0.1184535300184683</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03043888788750081</v>
+        <v>0.03243596474534018</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>647100143.1454983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4449829018.249713</v>
+        <v>4023196572.34998</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07062671656336095</v>
+        <v>0.08695040780237102</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03691359463202817</v>
+        <v>0.03095257697635484</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2224914530.852111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5053083348.071884</v>
+        <v>4495980173.627619</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1158868018480841</v>
+        <v>0.1277954614570514</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01994333124883896</v>
+        <v>0.02974603606947615</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>13</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2526541676.288289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5298930282.953683</v>
+        <v>4370733843.953197</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2042530190686603</v>
+        <v>0.180456373748273</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02222317899836633</v>
+        <v>0.01854933240482258</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2649465108.649127</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1678590109.035099</v>
+        <v>2119377984.459022</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1511321340044861</v>
+        <v>0.1531696184682884</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03505457214369206</v>
+        <v>0.03219655429482363</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>839294999.7097442</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2129003271.505075</v>
+        <v>2517076146.740287</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08690865953062839</v>
+        <v>0.1149205402610339</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04105624924162526</v>
+        <v>0.03391546706120387</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1064501621.738501</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2287425469.49017</v>
+        <v>2439273853.65573</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1438213463776932</v>
+        <v>0.1405256772744184</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05628604207261047</v>
+        <v>0.0418007842237632</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1143712716.100744</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2454643776.103893</v>
+        <v>2209213514.404262</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1318712226764215</v>
+        <v>0.1140258935427545</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02290367425036119</v>
+        <v>0.02517266731504887</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1227321978.780277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1179719974.049468</v>
+        <v>1367747512.062433</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1522013321242066</v>
+        <v>0.1653902936253351</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04183884166769683</v>
+        <v>0.03807984708013903</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>589860037.2814727</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3214330191.096062</v>
+        <v>3642897501.987147</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1217607995832377</v>
+        <v>0.1698375441242486</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03129620562224961</v>
+        <v>0.02607161463766825</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>22</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1607165147.041257</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3159495440.755944</v>
+        <v>3417581571.523082</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1353790818852056</v>
+        <v>0.1517574828357799</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02741719180505593</v>
+        <v>0.03364890728933625</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>20</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1579747746.674621</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1358490351.976417</v>
+        <v>1686218653.334056</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1301215724775249</v>
+        <v>0.08785235110612998</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04837327978610621</v>
+        <v>0.04629829623314247</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>679245128.6796181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1343522476.969965</v>
+        <v>1668259973.518584</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1351208313079501</v>
+        <v>0.1508081848942199</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0589952339281765</v>
+        <v>0.0446424289536696</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>671761298.1182977</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2285410747.380046</v>
+        <v>2529629743.257463</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0867230347182394</v>
+        <v>0.07817466060856813</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04676283041398056</v>
+        <v>0.0349883988401721</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1142705341.314769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3950559315.689092</v>
+        <v>3667734581.108298</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1228333470839298</v>
+        <v>0.1169874988284184</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05054542590755248</v>
+        <v>0.04004092146841673</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1975279661.538593</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2446182737.761704</v>
+        <v>1754516341.314636</v>
       </c>
       <c r="F94" t="n">
-        <v>0.149017097022262</v>
+        <v>0.1624124218632026</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03763261050181945</v>
+        <v>0.02931008756018822</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1223091425.207796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2784644698.526502</v>
+        <v>2536952950.659847</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1155059217573134</v>
+        <v>0.08412897830039259</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03891426785101978</v>
+        <v>0.04410617265636058</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1392322364.533538</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1652730329.363937</v>
+        <v>1784634205.434102</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09862132429227283</v>
+        <v>0.1202701138836671</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04195339417187834</v>
+        <v>0.03845940180121016</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>826365188.6081072</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5175257073.091861</v>
+        <v>3734152615.013769</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1611787372396608</v>
+        <v>0.1099915687456063</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02758944703178661</v>
+        <v>0.02449374182778478</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2587628687.317859</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2648641395.241271</v>
+        <v>2856208638.452321</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08699754144311191</v>
+        <v>0.1197556706187961</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03209535235017662</v>
+        <v>0.02785549871103808</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1324320658.353751</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2719160121.289792</v>
+        <v>2467522489.998598</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09265307060093542</v>
+        <v>0.1054827688976874</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02862782165381989</v>
+        <v>0.03239878463846985</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1359580026.127912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4356713045.462837</v>
+        <v>3908067646.022291</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1320335732301557</v>
+        <v>0.1414714916759882</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01796304282977868</v>
+        <v>0.02478336613387605</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>17</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2178356621.748922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3117774536.739447</v>
+        <v>3022651014.53196</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2062270430484107</v>
+        <v>0.1505986289823165</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04089703851279016</v>
+        <v>0.03522720943732426</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>25</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1558887372.874599</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_58.xlsx
+++ b/output/fit_clients/fit_round_58.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1988685606.446408</v>
+        <v>1861025687.615291</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1080540099320171</v>
+        <v>0.09617692084087723</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04180655989345178</v>
+        <v>0.04186497288191814</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2554920728.498852</v>
+        <v>2628870106.329522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1532686654491801</v>
+        <v>0.1204769352358813</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03801380945944069</v>
+        <v>0.04443313067685491</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3884725005.614329</v>
+        <v>5197770014.814706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1443629903830683</v>
+        <v>0.1618943761535094</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02822144675839506</v>
+        <v>0.03682296364485547</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2996134929.680882</v>
+        <v>2656924773.949769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09889094101685827</v>
+        <v>0.09923948248001337</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0414410978406272</v>
+        <v>0.04254738706916279</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2603512184.195442</v>
+        <v>1849703670.035315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.128694174894114</v>
+        <v>0.1134981191569785</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04542750035794044</v>
+        <v>0.05192300136319446</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2314569151.843154</v>
+        <v>2925637181.41569</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07306541179025458</v>
+        <v>0.08309157457543637</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04971873488261006</v>
+        <v>0.04110839775764102</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2784175963.89335</v>
+        <v>3073172574.639018</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1401454550082844</v>
+        <v>0.1841175370244261</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03025799286361399</v>
+        <v>0.02613549965231037</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2050461148.125287</v>
+        <v>2084271703.88907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1492650036104254</v>
+        <v>0.1731443610803828</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0301275892056535</v>
+        <v>0.0344041883469582</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4729250294.161603</v>
+        <v>5389576670.545394</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1971572305862387</v>
+        <v>0.1362431431670069</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04071141870662927</v>
+        <v>0.04507207387248467</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4080145747.301336</v>
+        <v>2704874050.730843</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1152643913526031</v>
+        <v>0.1548366539994696</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03759790355066034</v>
+        <v>0.04365573277478036</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2227635838.351757</v>
+        <v>2126788755.956978</v>
       </c>
       <c r="F12" t="n">
-        <v>0.181449902826378</v>
+        <v>0.1696113241658593</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03594106429231159</v>
+        <v>0.03864470417473029</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5348744471.644305</v>
+        <v>4722122862.734345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08228178485089434</v>
+        <v>0.09345072298542878</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02840639649503179</v>
+        <v>0.02152106914895283</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2758179848.111661</v>
+        <v>3269872103.017418</v>
       </c>
       <c r="F14" t="n">
-        <v>0.14298228446965</v>
+        <v>0.1170368267484839</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03103087661738691</v>
+        <v>0.03249333193137051</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1398805639.622559</v>
+        <v>1808808841.770695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09326601132847763</v>
+        <v>0.0774949441293372</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03422292135017509</v>
+        <v>0.04219333796148479</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2051081630.78375</v>
+        <v>1834014125.321661</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1040636610689367</v>
+        <v>0.08616960407181348</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04879091320211223</v>
+        <v>0.03422108805491888</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4192338553.599668</v>
+        <v>5084799875.620811</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1430728494546686</v>
+        <v>0.1288473738682219</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05258585720538152</v>
+        <v>0.03694170058400361</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3262051046.597482</v>
+        <v>3471075451.097054</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1643093011397845</v>
+        <v>0.1308058920445945</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03335343438841559</v>
+        <v>0.03336717481592354</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>852191749.0134979</v>
+        <v>1138039580.854423</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1631764057661919</v>
+        <v>0.1566381490451803</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01963368406497158</v>
+        <v>0.02186998774057128</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2121439445.897285</v>
+        <v>2564212852.697862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.158318354559315</v>
+        <v>0.1526099277662513</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02708486252259736</v>
+        <v>0.0314920461541837</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2618799279.546164</v>
+        <v>2153794500.531395</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08690466679617218</v>
+        <v>0.08677656510170868</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02912901928386283</v>
+        <v>0.02889020121554992</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3337356422.969099</v>
+        <v>3204641491.02798</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1373765819531115</v>
+        <v>0.11832287562072</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03589248984529039</v>
+        <v>0.05159904505532355</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1409528691.518098</v>
+        <v>1219357197.992638</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1213188548025737</v>
+        <v>0.1607435813770644</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03998903822754422</v>
+        <v>0.04150171313362237</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3817897723.521241</v>
+        <v>2642433601.412093</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09862303943532659</v>
+        <v>0.1295106251149735</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03139645090908434</v>
+        <v>0.02353957206624215</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1383302586.834735</v>
+        <v>1233893328.805423</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1093925261585307</v>
+        <v>0.08512827646283135</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01906964474369825</v>
+        <v>0.02591468134121916</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1044871751.042913</v>
+        <v>1025648582.681876</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08355362522303654</v>
+        <v>0.1193163079774551</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03701999611683756</v>
+        <v>0.02641268155093157</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3504529859.011488</v>
+        <v>3330271698.731021</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1439827674012849</v>
+        <v>0.1146076134993884</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01933036332358641</v>
+        <v>0.02203601326000606</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2475496865.046547</v>
+        <v>2902507533.524085</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1482863338981084</v>
+        <v>0.09994254720968067</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04580318458708488</v>
+        <v>0.03082990423951179</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4070201873.554402</v>
+        <v>5670413310.661242</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1180977286939687</v>
+        <v>0.1303955586301221</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03122386871028516</v>
+        <v>0.02877532863290821</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1719715834.453174</v>
+        <v>1491048440.669611</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09092903399220055</v>
+        <v>0.1213355990830294</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03409014081815246</v>
+        <v>0.03552451939120551</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1499920829.46526</v>
+        <v>1027820331.877107</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1117705569868361</v>
+        <v>0.08931769780937825</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04564917498227494</v>
+        <v>0.03946202835737187</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1564333477.988968</v>
+        <v>1697325451.868278</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08551146633088584</v>
+        <v>0.08672196249843411</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02872230855011611</v>
+        <v>0.02540744254364496</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1948222198.244536</v>
+        <v>3020661529.972417</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1713986648751782</v>
+        <v>0.2048998688897544</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04532904925634379</v>
+        <v>0.04628366052505421</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1028328703.722441</v>
+        <v>1221349220.621307</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09377373617752403</v>
+        <v>0.08305031427186964</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02191111957141606</v>
+        <v>0.0214917418622829</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>962511199.8236183</v>
+        <v>1077388766.52277</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09375128502758685</v>
+        <v>0.07596335045279862</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04123666010101437</v>
+        <v>0.02897837851147904</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3020284966.324563</v>
+        <v>2352566788.858707</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1791130329784209</v>
+        <v>0.1514993561285935</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02236375577070263</v>
+        <v>0.02746454229606315</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2414961411.282962</v>
+        <v>2305014147.171173</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0845485066593142</v>
+        <v>0.07399852470883704</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04115274859321313</v>
+        <v>0.04086532115646174</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1694948317.189338</v>
+        <v>1937669626.101964</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0834390426795181</v>
+        <v>0.1050110562736587</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03254871595171727</v>
+        <v>0.03161633920761985</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1622649421.046857</v>
+        <v>1343181891.17426</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1625199375690072</v>
+        <v>0.1927006558674374</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03195434852784224</v>
+        <v>0.02048267678227553</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1170584279.222575</v>
+        <v>1691627440.795734</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09954031503008935</v>
+        <v>0.1557753356423474</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03840217196890803</v>
+        <v>0.04919925190150459</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2802089442.312376</v>
+        <v>2749697368.101482</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1505194551797228</v>
+        <v>0.100566883855922</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03988931689464016</v>
+        <v>0.03676372031103541</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4286740168.522406</v>
+        <v>2723446412.011013</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08731317138537557</v>
+        <v>0.116436727130013</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04609504387586606</v>
+        <v>0.04064917835873474</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2436378958.114856</v>
+        <v>2008448080.023214</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1252874967280059</v>
+        <v>0.1302093482333365</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02505183403703952</v>
+        <v>0.02003354253473158</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1667974101.238775</v>
+        <v>1573573181.739765</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08136776281802938</v>
+        <v>0.09405759400112572</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03359261900407947</v>
+        <v>0.0250312518548483</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2453696430.188568</v>
+        <v>1963707004.324332</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1816825226652786</v>
+        <v>0.1401895636638968</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04838380250397147</v>
+        <v>0.03747269548168104</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4330085679.4083</v>
+        <v>4540673902.433206</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1648358270052862</v>
+        <v>0.165796372961286</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05845319760044382</v>
+        <v>0.05759905863661778</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5058399251.852168</v>
+        <v>5016604060.1889</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1980534774622397</v>
+        <v>0.1556455867117109</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04820245323083503</v>
+        <v>0.04321221931421219</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3221036115.436012</v>
+        <v>3681662326.335249</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09696951672266839</v>
+        <v>0.10685966515735</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02628085885195757</v>
+        <v>0.02772388822524034</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1354446621.500033</v>
+        <v>1843567179.741093</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1482916773385483</v>
+        <v>0.1938302368386071</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02753635076041532</v>
+        <v>0.03352780834930311</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4091892365.695735</v>
+        <v>2636768601.959097</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1764430112708849</v>
+        <v>0.1092581426624796</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0434185528752846</v>
+        <v>0.03359246136593762</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1458117822.49227</v>
+        <v>1455239786.258018</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1343867775592881</v>
+        <v>0.1907387052099445</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05265531383144686</v>
+        <v>0.03830358438365653</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3246767597.403076</v>
+        <v>3713908064.826562</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09596213115977487</v>
+        <v>0.0953369315266363</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05381484485473005</v>
+        <v>0.06042412361613544</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2362607739.38896</v>
+        <v>2494852407.749597</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1866289739853632</v>
+        <v>0.1776705532804966</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03172300562576297</v>
+        <v>0.02325708057531122</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4121446402.539856</v>
+        <v>3129785936.995042</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1282105588061437</v>
+        <v>0.1218935710877657</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04709564659330572</v>
+        <v>0.04482688180648702</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4779553955.162674</v>
+        <v>4965893256.837516</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2196747481676953</v>
+        <v>0.1676629122235181</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03116108286775956</v>
+        <v>0.02247810847677812</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1822264940.790775</v>
+        <v>1466526871.298057</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1231667567141421</v>
+        <v>0.1234790653427764</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03520619521947262</v>
+        <v>0.05435150538721203</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2861358661.93959</v>
+        <v>3897299479.155616</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1521276149982627</v>
+        <v>0.166438992244182</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0189326636484433</v>
+        <v>0.02218589932136662</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1614661829.609708</v>
+        <v>1564260968.33098</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1604606550379039</v>
+        <v>0.1920979866562922</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02560991638226337</v>
+        <v>0.03723701632925675</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4563607250.084437</v>
+        <v>3417841351.816714</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1120913800725241</v>
+        <v>0.1230926113602863</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03830127862775734</v>
+        <v>0.04350008570920202</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2479149136.132259</v>
+        <v>2810842616.604761</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1744392410505958</v>
+        <v>0.1375564394888198</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03086273924089613</v>
+        <v>0.02400013150830118</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3061784047.620799</v>
+        <v>2638549993.034707</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1683288264210572</v>
+        <v>0.1526622246602997</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02906675343133452</v>
+        <v>0.0310837312291686</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1597039821.780917</v>
+        <v>1850684830.291566</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1532697016736072</v>
+        <v>0.1412870807690562</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0340123525890043</v>
+        <v>0.03277463352505739</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5167741809.792387</v>
+        <v>3903320678.302844</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07052370111632007</v>
+        <v>0.07532464282744</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04679240469618715</v>
+        <v>0.03357554456687045</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3704117751.087077</v>
+        <v>4956111369.322359</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1750933969983558</v>
+        <v>0.1331256879124277</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02299366122670696</v>
+        <v>0.02197425757388367</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4643545965.678058</v>
+        <v>3630835881.42581</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1080671373714309</v>
+        <v>0.1138390374805403</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02798295481166292</v>
+        <v>0.02551306990070551</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5267577637.849833</v>
+        <v>5524869436.235703</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1311895806816295</v>
+        <v>0.1425823704795247</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03346480103558035</v>
+        <v>0.04953760854260986</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2360285293.089026</v>
+        <v>3064164594.79291</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06307198662966736</v>
+        <v>0.1011125658298923</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0372221933728081</v>
+        <v>0.03757652484908744</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5121206544.675403</v>
+        <v>4671507147.611827</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1121576605333318</v>
+        <v>0.1021401528570864</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05091063496257402</v>
+        <v>0.04023867163809583</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2391245361.79165</v>
+        <v>1580569160.18463</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1778903321666956</v>
+        <v>0.1810693257560027</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05962072978666687</v>
+        <v>0.03813073568557684</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2442385562.884095</v>
+        <v>2540293033.334949</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09946121428930961</v>
+        <v>0.06464276353912192</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0346636019356442</v>
+        <v>0.04764974522963487</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4818109343.203961</v>
+        <v>4933937940.930488</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1635100997038963</v>
+        <v>0.1269006621237586</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02986808551415838</v>
+        <v>0.02768506968743734</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1893035078.918532</v>
+        <v>1776421613.747514</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06715559320995211</v>
+        <v>0.09668335250093335</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05244472706651809</v>
+        <v>0.03650544563014192</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3336908290.69842</v>
+        <v>3428235934.835238</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09574305994256889</v>
+        <v>0.1074239171514274</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03841113409164369</v>
+        <v>0.04487624424478704</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3703347016.704139</v>
+        <v>3534985063.214336</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1397110629003078</v>
+        <v>0.179864006287286</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03138793384302389</v>
+        <v>0.03194152797722842</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2056597305.31152</v>
+        <v>2411364003.008968</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1392734905484755</v>
+        <v>0.1382257065453029</v>
       </c>
       <c r="G75" t="n">
-        <v>0.024095683482867</v>
+        <v>0.02501228432435334</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4617072416.141182</v>
+        <v>5330738937.591623</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09118129171482231</v>
+        <v>0.1004368713619749</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02702172313298088</v>
+        <v>0.02636356354305198</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1394074305.114166</v>
+        <v>1692710632.144173</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1204805468421737</v>
+        <v>0.1792475866687014</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02864699548983296</v>
+        <v>0.02888764559523933</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4147117117.395106</v>
+        <v>4291570143.016378</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1354760684152024</v>
+        <v>0.1197460521591595</v>
       </c>
       <c r="G78" t="n">
-        <v>0.038749055994563</v>
+        <v>0.03516676278892204</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1744335001.612818</v>
+        <v>1191931451.083758</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1184535300184683</v>
+        <v>0.1109132117929147</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03243596474534018</v>
+        <v>0.04015730465337287</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4023196572.34998</v>
+        <v>5612935168.51066</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08695040780237102</v>
+        <v>0.07762796325688778</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03095257697635484</v>
+        <v>0.03488368978377474</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4495980173.627619</v>
+        <v>3408376860.91742</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1277954614570514</v>
+        <v>0.1151157902365621</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02974603606947615</v>
+        <v>0.03141136697255441</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4370733843.953197</v>
+        <v>4226149048.739585</v>
       </c>
       <c r="F82" t="n">
-        <v>0.180456373748273</v>
+        <v>0.1364621292601745</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01854933240482258</v>
+        <v>0.02737337993001068</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2119377984.459022</v>
+        <v>1975772315.037746</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1531696184682884</v>
+        <v>0.09710693552638121</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03219655429482363</v>
+        <v>0.03591621952499367</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2517076146.740287</v>
+        <v>2104926067.060727</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1149205402610339</v>
+        <v>0.1000281823157582</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03391546706120387</v>
+        <v>0.03303847217585608</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2439273853.65573</v>
+        <v>2796964975.885651</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1405256772744184</v>
+        <v>0.126760247409772</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0418007842237632</v>
+        <v>0.05146543322414645</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2209213514.404262</v>
+        <v>1998482699.186775</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1140258935427545</v>
+        <v>0.1675948658659064</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02517266731504887</v>
+        <v>0.02557614323265919</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1367747512.062433</v>
+        <v>1084965761.203932</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1653902936253351</v>
+        <v>0.1608602921279137</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03807984708013903</v>
+        <v>0.03739809955797549</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3642897501.987147</v>
+        <v>3081272087.163887</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1698375441242486</v>
+        <v>0.1398582905963008</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02607161463766825</v>
+        <v>0.03755001058702952</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3417581571.523082</v>
+        <v>2625202792.617487</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1517574828357799</v>
+        <v>0.1399776738801571</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03364890728933625</v>
+        <v>0.03411852795660868</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1686218653.334056</v>
+        <v>1757827608.028041</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08785235110612998</v>
+        <v>0.1253848936268957</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04629829623314247</v>
+        <v>0.04595593372985174</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1668259973.518584</v>
+        <v>2060713822.05863</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1508081848942199</v>
+        <v>0.1264688579156986</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0446424289536696</v>
+        <v>0.04037547700436624</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2529629743.257463</v>
+        <v>2162901888.863463</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07817466060856813</v>
+        <v>0.1066573345135584</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0349883988401721</v>
+        <v>0.03630494365706588</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3667734581.108298</v>
+        <v>4737725287.732068</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1169874988284184</v>
+        <v>0.1269610751633326</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04004092146841673</v>
+        <v>0.04754557762455644</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1754516341.314636</v>
+        <v>2498972877.758996</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1624124218632026</v>
+        <v>0.1438927385483451</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02931008756018822</v>
+        <v>0.03073804123693212</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2536952950.659847</v>
+        <v>2176403381.038444</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08412897830039259</v>
+        <v>0.1382574662787418</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04410617265636058</v>
+        <v>0.04857973382493445</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1784634205.434102</v>
+        <v>2320592063.092156</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1202701138836671</v>
+        <v>0.09416159544670107</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03845940180121016</v>
+        <v>0.04389260658373977</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3734152615.013769</v>
+        <v>3706363353.928771</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1099915687456063</v>
+        <v>0.1266220939210644</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02449374182778478</v>
+        <v>0.02476128547702816</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2856208638.452321</v>
+        <v>3030637103.677928</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1197556706187961</v>
+        <v>0.1081720296917383</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02785549871103808</v>
+        <v>0.03258510219448472</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2467522489.998598</v>
+        <v>3440694810.456357</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1054827688976874</v>
+        <v>0.1404564813617629</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03239878463846985</v>
+        <v>0.03351042876768318</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3908067646.022291</v>
+        <v>3428993557.289254</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1414714916759882</v>
+        <v>0.1333493050399761</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02478336613387605</v>
+        <v>0.02671025310351188</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3022651014.53196</v>
+        <v>3555072782.460868</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1505986289823165</v>
+        <v>0.2022127106664914</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03522720943732426</v>
+        <v>0.05089268515219591</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_58.xlsx
+++ b/output/fit_clients/fit_round_58.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1861025687.615291</v>
+        <v>2153518721.910509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09617692084087723</v>
+        <v>0.09145907372757039</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04186497288191814</v>
+        <v>0.03950290602919328</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2628870106.329522</v>
+        <v>2434968988.733023</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1204769352358813</v>
+        <v>0.1789468160474013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04443313067685491</v>
+        <v>0.04770186674129931</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5197770014.814706</v>
+        <v>3520165656.688058</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1618943761535094</v>
+        <v>0.1541510531423323</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03682296364485547</v>
+        <v>0.03393512264759615</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42</v>
+      </c>
+      <c r="J4" t="n">
+        <v>57</v>
+      </c>
+      <c r="K4" t="n">
+        <v>157.9662226822036</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2656924773.949769</v>
+        <v>3290233770.346074</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09923948248001337</v>
+        <v>0.1038347271145733</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04254738706916279</v>
+        <v>0.04701320662962902</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" t="n">
+        <v>58</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1849703670.035315</v>
+        <v>2370710147.323501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1134981191569785</v>
+        <v>0.1364741989564588</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05192300136319446</v>
+        <v>0.0380738312644214</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2925637181.41569</v>
+        <v>2794546593.063578</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08309157457543637</v>
+        <v>0.075052107520007</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04110839775764102</v>
+        <v>0.04469389993222032</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3073172574.639018</v>
+        <v>3654419868.614028</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1841175370244261</v>
+        <v>0.1871827457972202</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02613549965231037</v>
+        <v>0.0234089562997491</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>57</v>
+      </c>
+      <c r="K8" t="n">
+        <v>160.7909100874213</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2084271703.88907</v>
+        <v>1557524720.224619</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1731443610803828</v>
+        <v>0.1983666135184448</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0344041883469582</v>
+        <v>0.03694347205726432</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5389576670.545394</v>
+        <v>5807746738.094774</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1362431431670069</v>
+        <v>0.204618347588908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04507207387248467</v>
+        <v>0.05238062637946452</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>54</v>
+      </c>
+      <c r="J10" t="n">
+        <v>58</v>
+      </c>
+      <c r="K10" t="n">
+        <v>221.1677932622051</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2704874050.730843</v>
+        <v>3129020157.534703</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1548366539994696</v>
+        <v>0.1219513526830775</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04365573277478036</v>
+        <v>0.03563811033373753</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2126788755.956978</v>
+        <v>2676326700.069014</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1696113241658593</v>
+        <v>0.1405577014930033</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03864470417473029</v>
+        <v>0.04115046493920635</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4722122862.734345</v>
+        <v>3799972009.12807</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09345072298542878</v>
+        <v>0.0686601423435038</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02152106914895283</v>
+        <v>0.02604888234817208</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>57</v>
+      </c>
+      <c r="K13" t="n">
+        <v>183.5957209386111</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3269872103.017418</v>
+        <v>2390036461.285687</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1170368267484839</v>
+        <v>0.1477861804611194</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03249333193137051</v>
+        <v>0.03488873866941006</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1808808841.770695</v>
+        <v>1694623679.018343</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0774949441293372</v>
+        <v>0.1006352049485138</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04219333796148479</v>
+        <v>0.04322523800333364</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1834014125.321661</v>
+        <v>2225179457.501216</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08616960407181348</v>
+        <v>0.07520921491805688</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03422108805491888</v>
+        <v>0.0488425679377638</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5084799875.620811</v>
+        <v>4938894177.657933</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1288473738682219</v>
+        <v>0.1164114197365957</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03694170058400361</v>
+        <v>0.03881281753844142</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28</v>
+      </c>
+      <c r="J17" t="n">
+        <v>57</v>
+      </c>
+      <c r="K17" t="n">
+        <v>181.9252071432403</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3471075451.097054</v>
+        <v>3613897221.79974</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1308058920445945</v>
+        <v>0.1528983093518703</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03336717481592354</v>
+        <v>0.02177713591329112</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>58</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1138039580.854423</v>
+        <v>1143641310.310892</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1566381490451803</v>
+        <v>0.1542421840380712</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02186998774057128</v>
+        <v>0.01662266680581458</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2564212852.697862</v>
+        <v>2077243448.455429</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1526099277662513</v>
+        <v>0.1148328781459708</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0314920461541837</v>
+        <v>0.02378810431285823</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2153794500.531395</v>
+        <v>2532468300.76803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08677656510170868</v>
+        <v>0.08890632688435993</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02889020121554992</v>
+        <v>0.0416409898817355</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1211,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3204641491.02798</v>
+        <v>2739622840.503505</v>
       </c>
       <c r="F22" t="n">
-        <v>0.11832287562072</v>
+        <v>0.08899514326475437</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05159904505532355</v>
+        <v>0.03610168245611232</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>57</v>
+      </c>
+      <c r="K22" t="n">
+        <v>83.31485987337682</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1219357197.992638</v>
+        <v>1014473018.130665</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1607435813770644</v>
+        <v>0.1140311486076135</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04150171313362237</v>
+        <v>0.05191506422087287</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2642433601.412093</v>
+        <v>2852721329.191016</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1295106251149735</v>
+        <v>0.1059591384342148</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02353957206624215</v>
+        <v>0.02435647708561925</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>57</v>
+      </c>
+      <c r="K24" t="n">
+        <v>94.66344779856949</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1233893328.805423</v>
+        <v>1077303296.728707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08512827646283135</v>
+        <v>0.1020974249068617</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02591468134121916</v>
+        <v>0.01866383552234181</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1025648582.681876</v>
+        <v>1296627042.551586</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1193163079774551</v>
+        <v>0.1167603049803985</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02641268155093157</v>
+        <v>0.02668600511800781</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3330271698.731021</v>
+        <v>3777676415.576004</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1146076134993884</v>
+        <v>0.1230123700421701</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02203601326000606</v>
+        <v>0.02398573181610777</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>58</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2902507533.524085</v>
+        <v>2925388984.747071</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09994254720968067</v>
+        <v>0.1375560155392497</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03082990423951179</v>
+        <v>0.03696478493102977</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>51</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5670413310.661242</v>
+        <v>3988853805.908582</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1303955586301221</v>
+        <v>0.1377492390423778</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02877532863290821</v>
+        <v>0.03788795545442862</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>53</v>
+      </c>
+      <c r="J29" t="n">
+        <v>58</v>
+      </c>
+      <c r="K29" t="n">
+        <v>228.6818795422759</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1491048440.669611</v>
+        <v>2073049328.001163</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1213355990830294</v>
+        <v>0.1049906296655948</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03552451939120551</v>
+        <v>0.03668206350804547</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1027820331.877107</v>
+        <v>1318665142.902153</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08931769780937825</v>
+        <v>0.1105498187159947</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03946202835737187</v>
+        <v>0.03284639015975937</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1697325451.868278</v>
+        <v>1661161293.805192</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08672196249843411</v>
+        <v>0.09632801969174547</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02540744254364496</v>
+        <v>0.02655896906768589</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3020661529.972417</v>
+        <v>2622831560.501698</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2048998688897544</v>
+        <v>0.1444427744126734</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04628366052505421</v>
+        <v>0.05599557133578058</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1221349220.621307</v>
+        <v>1557914048.602107</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08305031427186964</v>
+        <v>0.09292351681221554</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0214917418622829</v>
+        <v>0.01794394898597083</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1077388766.52277</v>
+        <v>868300105.3365568</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07596335045279862</v>
+        <v>0.1160788036222472</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02897837851147904</v>
+        <v>0.04411978254701648</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2352566788.858707</v>
+        <v>2175335521.022073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1514993561285935</v>
+        <v>0.1401702918644647</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02746454229606315</v>
+        <v>0.0272930447120363</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2305014147.171173</v>
+        <v>2295176071.001444</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07399852470883704</v>
+        <v>0.1072177917708824</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04086532115646174</v>
+        <v>0.02582162749816944</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1937669626.101964</v>
+        <v>2026436949.799333</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1050110562736587</v>
+        <v>0.0805432784353262</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03161633920761985</v>
+        <v>0.03306616986760429</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1343181891.17426</v>
+        <v>2019272785.861413</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1927006558674374</v>
+        <v>0.1410127479632367</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02048267678227553</v>
+        <v>0.02559293931167838</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1691627440.795734</v>
+        <v>1662359019.064317</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1557753356423474</v>
+        <v>0.1364335160653061</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04919925190150459</v>
+        <v>0.05243212794546261</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2749697368.101482</v>
+        <v>2704104543.011158</v>
       </c>
       <c r="F41" t="n">
-        <v>0.100566883855922</v>
+        <v>0.1513228956154209</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03676372031103541</v>
+        <v>0.04498136148073746</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2723446412.011013</v>
+        <v>4253237883.612098</v>
       </c>
       <c r="F42" t="n">
-        <v>0.116436727130013</v>
+        <v>0.08068717710078863</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04064917835873474</v>
+        <v>0.04084894579078536</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21</v>
+      </c>
+      <c r="J42" t="n">
+        <v>58</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2008448080.023214</v>
+        <v>2161307116.037403</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1302093482333365</v>
+        <v>0.1599226737031606</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02003354253473158</v>
+        <v>0.01594248504724326</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1573573181.739765</v>
+        <v>1551463293.125861</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09405759400112572</v>
+        <v>0.06422759249485156</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0250312518548483</v>
+        <v>0.03278797329074132</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1963707004.324332</v>
+        <v>1572272745.006199</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1401895636638968</v>
+        <v>0.1184799054447784</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03747269548168104</v>
+        <v>0.04260168189853592</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4540673902.433206</v>
+        <v>4340821840.196723</v>
       </c>
       <c r="F46" t="n">
-        <v>0.165796372961286</v>
+        <v>0.1394886815897278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05759905863661778</v>
+        <v>0.05946376074093542</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>34</v>
+      </c>
+      <c r="J46" t="n">
+        <v>58</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5016604060.1889</v>
+        <v>3446693234.190639</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1556455867117109</v>
+        <v>0.1252306170673889</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04321221931421219</v>
+        <v>0.05131228698989151</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>57</v>
+      </c>
+      <c r="K47" t="n">
+        <v>128.39713483875</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3681662326.335249</v>
+        <v>3752015258.955118</v>
       </c>
       <c r="F48" t="n">
-        <v>0.10685966515735</v>
+        <v>0.08929997920120716</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02772388822524034</v>
+        <v>0.03649292935367947</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>20</v>
+      </c>
+      <c r="J48" t="n">
+        <v>57</v>
+      </c>
+      <c r="K48" t="n">
+        <v>176.7501872375114</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1843567179.741093</v>
+        <v>1683306686.321682</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1938302368386071</v>
+        <v>0.1729107882251596</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03352780834930311</v>
+        <v>0.04427871943688776</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2636768601.959097</v>
+        <v>4173205146.017978</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1092581426624796</v>
+        <v>0.1502115355541856</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03359246136593762</v>
+        <v>0.04446128989148836</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>58</v>
+      </c>
+      <c r="K50" t="n">
+        <v>197.5192727928409</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1455239786.258018</v>
+        <v>1244443856.478146</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1907387052099445</v>
+        <v>0.1491984109059119</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03830358438365653</v>
+        <v>0.04886904936372546</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3713908064.826562</v>
+        <v>5087133189.21481</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0953369315266363</v>
+        <v>0.1140804569900184</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06042412361613544</v>
+        <v>0.0510184899780823</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>46</v>
+      </c>
+      <c r="J52" t="n">
+        <v>58</v>
+      </c>
+      <c r="K52" t="n">
+        <v>208.7586673015912</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2494852407.749597</v>
+        <v>3125459815.959907</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1776705532804966</v>
+        <v>0.1465236202514735</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02325708057531122</v>
+        <v>0.02420402467251222</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>55</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2345,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3129785936.995042</v>
+        <v>4885490818.10613</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1218935710877657</v>
+        <v>0.1559413708342582</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04482688180648702</v>
+        <v>0.04611655471989722</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>58</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4965893256.837516</v>
+        <v>3809731162.83675</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1676629122235181</v>
+        <v>0.2045406326993019</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02247810847677812</v>
+        <v>0.03001979411412949</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>26</v>
+      </c>
+      <c r="J55" t="n">
+        <v>58</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1466526871.298057</v>
+        <v>1597745700.971782</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1234790653427764</v>
+        <v>0.1551428077270276</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05435150538721203</v>
+        <v>0.05782160896172028</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3897299479.155616</v>
+        <v>4434608438.087469</v>
       </c>
       <c r="F57" t="n">
-        <v>0.166438992244182</v>
+        <v>0.1521389071791685</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02218589932136662</v>
+        <v>0.02426149899479756</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>21</v>
+      </c>
+      <c r="J57" t="n">
+        <v>58</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1564260968.33098</v>
+        <v>1620060851.261036</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1920979866562922</v>
+        <v>0.1711263138192987</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03723701632925675</v>
+        <v>0.03099521057308782</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3417841351.816714</v>
+        <v>4548297637.673274</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1230926113602863</v>
+        <v>0.08039569383290371</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04350008570920202</v>
+        <v>0.04359413787306447</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>57</v>
+      </c>
+      <c r="K59" t="n">
+        <v>173.7806464281703</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2557,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2810842616.604761</v>
+        <v>2768262601.285246</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1375564394888198</v>
+        <v>0.1321426646289093</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02400013150830118</v>
+        <v>0.02679042427767207</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2638549993.034707</v>
+        <v>2959870526.689475</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1526622246602997</v>
+        <v>0.1524415900988126</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0310837312291686</v>
+        <v>0.02159776668020088</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1850684830.291566</v>
+        <v>1773306207.04472</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1412870807690562</v>
+        <v>0.1355691557308371</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03277463352505739</v>
+        <v>0.0497645274403978</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3903320678.302844</v>
+        <v>4705356692.278639</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07532464282744</v>
+        <v>0.1024918181021546</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03357554456687045</v>
+        <v>0.04662495062168013</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>28</v>
+      </c>
+      <c r="J63" t="n">
+        <v>58</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4956111369.322359</v>
+        <v>3484834734.852145</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1331256879124277</v>
+        <v>0.1638937514688281</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02197425757388367</v>
+        <v>0.02962345800273766</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>58</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3630835881.42581</v>
+        <v>3689237649.720639</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1138390374805403</v>
+        <v>0.1699780205925642</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02551306990070551</v>
+        <v>0.02158103482151362</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>46</v>
+      </c>
+      <c r="J65" t="n">
+        <v>57</v>
+      </c>
+      <c r="K65" t="n">
+        <v>173.4148538516259</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5524869436.235703</v>
+        <v>4794464420.288507</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1425823704795247</v>
+        <v>0.1401390730520811</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04953760854260986</v>
+        <v>0.04742057915569288</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>58</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3064164594.79291</v>
+        <v>2650456060.14153</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1011125658298923</v>
+        <v>0.09329400509838554</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03757652484908744</v>
+        <v>0.03245680203299543</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4671507147.611827</v>
+        <v>4702026071.404765</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1021401528570864</v>
+        <v>0.1525062688701105</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04023867163809583</v>
+        <v>0.05096575899910314</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>29</v>
+      </c>
+      <c r="J68" t="n">
+        <v>57</v>
+      </c>
+      <c r="K68" t="n">
+        <v>188.4742380805596</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1580569160.18463</v>
+        <v>2185951501.558413</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1810693257560027</v>
+        <v>0.1106169755517927</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03813073568557684</v>
+        <v>0.04444842152490518</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2540293033.334949</v>
+        <v>3587096088.039393</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06464276353912192</v>
+        <v>0.084461013384537</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04764974522963487</v>
+        <v>0.04302075252383478</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>58</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4933937940.930488</v>
+        <v>4321178631.044846</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1269006621237586</v>
+        <v>0.1267918869526914</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02768506968743734</v>
+        <v>0.03232390828815319</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>47</v>
+      </c>
+      <c r="J71" t="n">
+        <v>58</v>
+      </c>
+      <c r="K71" t="n">
+        <v>200.987860954169</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1776421613.747514</v>
+        <v>1904340842.543504</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09668335250093335</v>
+        <v>0.09384697871975403</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03650544563014192</v>
+        <v>0.04199846443645657</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3428235934.835238</v>
+        <v>3027438574.302744</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1074239171514274</v>
+        <v>0.07264194170037397</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04487624424478704</v>
+        <v>0.03414957228850424</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3534985063.214336</v>
+        <v>3035803415.983795</v>
       </c>
       <c r="F74" t="n">
-        <v>0.179864006287286</v>
+        <v>0.1275328349077164</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03194152797722842</v>
+        <v>0.03341539379803092</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2411364003.008968</v>
+        <v>2260908536.779414</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1382257065453029</v>
+        <v>0.1336330038841121</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02501228432435334</v>
+        <v>0.03226543781824776</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5330738937.591623</v>
+        <v>4209362411.563254</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1004368713619749</v>
+        <v>0.08556621455322291</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02636356354305198</v>
+        <v>0.03003794316820731</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>27</v>
+      </c>
+      <c r="J76" t="n">
+        <v>57</v>
+      </c>
+      <c r="K76" t="n">
+        <v>161.9227246943248</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1692710632.144173</v>
+        <v>1557935690.811939</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1792475866687014</v>
+        <v>0.1692140990215056</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02888764559523933</v>
+        <v>0.03081015099410029</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4291570143.016378</v>
+        <v>2996509370.048158</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1197460521591595</v>
+        <v>0.1044624610642551</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03516676278892204</v>
+        <v>0.0361411931308071</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>56</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1191931451.083758</v>
+        <v>1702094887.72212</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1109132117929147</v>
+        <v>0.119975211977152</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04015730465337287</v>
+        <v>0.0390331925567218</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5612935168.51066</v>
+        <v>5256278101.62337</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07762796325688778</v>
+        <v>0.0811051976920629</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03488368978377474</v>
+        <v>0.03063831949029786</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>28</v>
+      </c>
+      <c r="J80" t="n">
+        <v>57</v>
+      </c>
+      <c r="K80" t="n">
+        <v>157.5605451502144</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3408376860.91742</v>
+        <v>3958031222.342212</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1151157902365621</v>
+        <v>0.1272855585043473</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03141136697255441</v>
+        <v>0.02400767862990142</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>26</v>
+      </c>
+      <c r="J81" t="n">
+        <v>57</v>
+      </c>
+      <c r="K81" t="n">
+        <v>159.612492741563</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3339,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4226149048.739585</v>
+        <v>5171032780.621467</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1364621292601745</v>
+        <v>0.1392641681099861</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02737337993001068</v>
+        <v>0.02008761695037178</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>33</v>
+      </c>
+      <c r="J82" t="n">
+        <v>58</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1975772315.037746</v>
+        <v>2476316046.415494</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09710693552638121</v>
+        <v>0.1231382523662208</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03591621952499367</v>
+        <v>0.04555452953621787</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2104926067.060727</v>
+        <v>2537217974.883336</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1000281823157582</v>
+        <v>0.1105614727733885</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03303847217585608</v>
+        <v>0.04765762971563829</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2796964975.885651</v>
+        <v>3283386035.204897</v>
       </c>
       <c r="F85" t="n">
-        <v>0.126760247409772</v>
+        <v>0.18284128491672</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05146543322414645</v>
+        <v>0.04257536775607478</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>52</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1998482699.186775</v>
+        <v>2464276833.20122</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1675948658659064</v>
+        <v>0.1693147473859545</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02557614323265919</v>
+        <v>0.0200612496424458</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1084965761.203932</v>
+        <v>1449727788.959764</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1608602921279137</v>
+        <v>0.142731243933546</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03739809955797549</v>
+        <v>0.02894735556685308</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3081272087.163887</v>
+        <v>2798680320.671012</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1398582905963008</v>
+        <v>0.1126136026722467</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03755001058702952</v>
+        <v>0.03222314216157417</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2625202792.617487</v>
+        <v>2415854332.468941</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1399776738801571</v>
+        <v>0.1383520165288166</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03411852795660868</v>
+        <v>0.02702745114403454</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1757827608.028041</v>
+        <v>1753985144.21823</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1253848936268957</v>
+        <v>0.09122227981800619</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04595593372985174</v>
+        <v>0.03888730784752027</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2060713822.05863</v>
+        <v>1717213987.952793</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1264688579156986</v>
+        <v>0.1195447128787432</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04037547700436624</v>
+        <v>0.04345891658079612</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2162901888.863463</v>
+        <v>2252965918.253905</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1066573345135584</v>
+        <v>0.09074635884836749</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03630494365706588</v>
+        <v>0.03012100399235764</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4737725287.732068</v>
+        <v>3605112440.648348</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1269610751633326</v>
+        <v>0.1265328290618275</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04754557762455644</v>
+        <v>0.04776181524403876</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+      <c r="J93" t="n">
+        <v>58</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2498972877.758996</v>
+        <v>2261498782.225863</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1438927385483451</v>
+        <v>0.1684375887428565</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03073804123693212</v>
+        <v>0.04036177212955414</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2176403381.038444</v>
+        <v>2128000239.448549</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1382574662787418</v>
+        <v>0.114447622935642</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04857973382493445</v>
+        <v>0.04396874826750591</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2320592063.092156</v>
+        <v>1452827587.593435</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09416159544670107</v>
+        <v>0.09813612776478504</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04389260658373977</v>
+        <v>0.03655339886130826</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3706363353.928771</v>
+        <v>5033579944.086445</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1266220939210644</v>
+        <v>0.1697332247098412</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02476128547702816</v>
+        <v>0.02805705402438916</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>28</v>
+      </c>
+      <c r="J97" t="n">
+        <v>58</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3030637103.677928</v>
+        <v>2866752608.653522</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1081720296917383</v>
+        <v>0.1128597357597124</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03258510219448472</v>
+        <v>0.03143962107608909</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>14</v>
+      </c>
+      <c r="J98" t="n">
+        <v>57</v>
+      </c>
+      <c r="K98" t="n">
+        <v>91.68707156595823</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3440694810.456357</v>
+        <v>3122619039.539685</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1404564813617629</v>
+        <v>0.1081231103698925</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03351042876768318</v>
+        <v>0.02299184440865343</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3428993557.289254</v>
+        <v>3054987987.696141</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1333493050399761</v>
+        <v>0.1123223013638787</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02671025310351188</v>
+        <v>0.02662223109842565</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>25</v>
+      </c>
+      <c r="J100" t="n">
+        <v>56</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3555072782.460868</v>
+        <v>2923030970.369142</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2022127106664914</v>
+        <v>0.1712859874571301</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05089268515219591</v>
+        <v>0.05569478185738924</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
